--- a/Coding/SeleniumCheckKucoin/template.xlsx
+++ b/Coding/SeleniumCheckKucoin/template.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226" filterPrivacy="1" showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="939"/>
+    <workbookView tabRatio="939" windowHeight="11745" windowWidth="19200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="KSC-S-23_1 プログラム一覧表" sheetId="121" r:id="rId1"/>
-    <sheet name="KSC-S-23_2 メソッド（関数）仕様(1枚目)" sheetId="122" r:id="rId2"/>
-    <sheet name="KSC-S-23_3メソッドロジック図(1枚目)" sheetId="119" r:id="rId3"/>
-    <sheet name="KSC-S-23_3メソッドロジック説明(1枚目)" sheetId="120" r:id="rId4"/>
+    <sheet name="KSC-S-23_1 プログラム一覧表" r:id="rId1" sheetId="121"/>
+    <sheet name="KSC-S-25_2 メソッド（関数）仕様(2枚目)" r:id="rId9" sheetId="123"/>
+    <sheet name="KSC-S-25_2 メソッド（関数）仕様(3枚目)" r:id="rId10" sheetId="124"/>
+    <sheet name="KSC-S-25_2 メソッド（関数）仕様(4枚目)" r:id="rId11" sheetId="125"/>
+    <sheet name="KSC-S-25_2 メソッド（関数）仕様(5枚目)" r:id="rId12" sheetId="126"/>
+    <sheet name="KSC-S-25_2 メソッド（関数）仕様(6枚目)" r:id="rId13" sheetId="127"/>
+    <sheet name="KSC-S-23_2 メソッド（関数）仕様(1枚目)" r:id="rId2" sheetId="122"/>
+    <sheet name="KSC-S-23_3メソッドロジック図(1枚目)" r:id="rId3" sheetId="119"/>
+    <sheet name="KSC-S-23_3メソッドロジック説明(1枚目)" r:id="rId4" sheetId="120"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'KSC-S-23_1 プログラム一覧表'!$A$1:$P$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$A$1:$Q$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'KSC-S-23_3メソッドロジック図(1枚目)'!$A$1:$AS$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'KSC-S-23_3メソッドロジック説明(1枚目)'!$A$1:$AS$50</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'KSC-S-23_1 プログラム一覧表'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'KSC-S-23_3メソッドロジック図(1枚目)'!$1:$2</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'KSC-S-23_1 プログラム一覧表'!$A$1:$P$12</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Area">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$A$1:$Q$30</definedName>
+    <definedName localSheetId="7" name="_xlnm.Print_Area">'KSC-S-23_3メソッドロジック図(1枚目)'!$A$1:$AS$51</definedName>
+    <definedName localSheetId="8" name="_xlnm.Print_Area">'KSC-S-23_3メソッドロジック説明(1枚目)'!$A$1:$AS$50</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'KSC-S-23_1 プログラム一覧表'!$1:$4</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Titles">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$1:$6</definedName>
+    <definedName localSheetId="7" name="_xlnm.Print_Titles">'KSC-S-23_3メソッドロジック図(1枚目)'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -31,7 +36,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +101,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A23" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G28" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="J28" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,191 +184,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="123">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>前提条件</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ゼンテイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ジョウケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>引数</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>引数名</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>メイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>型</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">初期値 </t>
-    <rPh sb="0" eb="3">
+    <rPh eb="3" sb="0">
       <t>ショキチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>返り値</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>カエ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>チ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>例外処理</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>レイガイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発生条件および説明</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ハッセイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ジョウケン</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh eb="9" sb="7">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Exceptionの内容</t>
-    <rPh sb="10" eb="12">
+    <rPh eb="12" sb="10">
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応方法</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プログラム名</t>
-    <rPh sb="5" eb="6">
+    <rPh eb="6" sb="5">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>実装形態</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ケイタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>分類</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図ID</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図名</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ズ</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>凡例</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ハンレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>物理名</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ブツリ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応クラス</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パッケージ名</t>
-    <rPh sb="5" eb="6">
+    <rPh eb="6" sb="5">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>クラス名</t>
-    <rPh sb="3" eb="4">
+    <rPh eb="4" sb="3">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メソッド名</t>
-    <rPh sb="4" eb="5">
+    <rPh eb="5" sb="4">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -373,10 +378,10 @@
   </si>
   <si>
     <t>システム名／サブシステム名</t>
-    <rPh sb="4" eb="5">
+    <rPh eb="5" sb="4">
       <t>メイ</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh eb="13" sb="12">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -389,10 +394,10 @@
   </si>
   <si>
     <t>作成者</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -403,7 +408,7 @@
   </si>
   <si>
     <t>ドキュメント名</t>
-    <rPh sb="6" eb="7">
+    <rPh eb="7" sb="6">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -416,10 +421,10 @@
   </si>
   <si>
     <t>更新者</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -434,21 +439,21 @@
   </si>
   <si>
     <t>初版</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ショハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作成日</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作成者</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -458,14 +463,14 @@
   </si>
   <si>
     <t>更新日</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>更新者</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -480,10 +485,10 @@
   </si>
   <si>
     <t>メソッド（関数）仕様</t>
-    <rPh sb="5" eb="7">
+    <rPh eb="7" sb="5">
       <t>カンスウ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh eb="10" sb="8">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -786,6 +791,12 @@
   </si>
   <si>
     <t>139, 149</t>
+  </si>
+  <si>
+    <t>(TSDV)HungPN</t>
+  </si>
+  <si>
+    <t>jp.co.toshiba_sol.slim.ks.substituteinput</t>
   </si>
 </sst>
 </file>
@@ -1281,614 +1292,614 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="194">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="165" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="165" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="15" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="16" numFmtId="165" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="16" numFmtId="165" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" quotePrefix="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="165" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="22" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" quotePrefix="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="通貨 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1901,7 +1912,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -1945,23 +1956,23 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1000"/>
             <a:t>①</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:rPr altLang="ja-JP" baseline="0" kumimoji="1" lang="en-US" sz="1000"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:rPr altLang="en-US" baseline="0" kumimoji="1" lang="ja-JP" sz="1000"/>
             <a:t>ユーザーの情報と原価部課を取得</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          <a:endParaRPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2010,11 +2021,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2025,7 +2036,7 @@
             <a:t>②</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr altLang="en-US" baseline="0" kumimoji="1" lang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2036,7 +2047,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2060,7 +2071,7 @@
             <a:t>ActionForm</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2122,12 +2133,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100"/>
             <a:t>開始</a:t>
           </a:r>
         </a:p>
@@ -2178,12 +2189,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100"/>
             <a:t>終了</a:t>
           </a:r>
         </a:p>
@@ -2234,11 +2245,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2299,16 +2310,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" bIns="0" horzOverflow="clip" lIns="0" rIns="0" rtlCol="0" tIns="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100"/>
             <a:t>④選択される部課コードが</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2319,7 +2330,7 @@
             <a:t>null</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2519,11 +2530,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2534,7 +2545,7 @@
             <a:t>⑤</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+            <a:rPr altLang="en-US" baseline="0" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2642,11 +2653,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2658,7 +2669,7 @@
             <a:t>⑥</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2669,7 +2680,7 @@
             <a:t>KSSubstituteInputService</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2730,11 +2741,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2746,7 +2757,7 @@
             <a:t>⑦パラメーターマップを作成し、①で取得したユーザー</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr altLang="ja-JP" lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2758,7 +2769,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2820,11 +2831,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2884,7 +2895,7 @@
             <a:t>() </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2896,7 +2907,7 @@
             <a:t>関数を呼び出し、</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr altLang="en-US" baseline="0" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2958,11 +2969,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2974,7 +2985,7 @@
             <a:t>⑨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2986,7 +2997,7 @@
             <a:t>パラメーターマップを作成し、③で選択の取得した部課コードとユーザー</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr altLang="ja-JP" lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2998,7 +3009,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3086,13 +3097,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
+        <a:xfrm flipV="1" rot="10800000">
           <a:off x="3000374" y="2709861"/>
           <a:ext cx="38100" cy="1271589"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 700000"/>
+            <a:gd fmla="val 700000" name="adj1"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3156,11 +3167,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3196,7 +3207,7 @@
             <a:t>.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3219,7 +3230,7 @@
             <a:t>() </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3231,7 +3242,7 @@
             <a:t>関数を呼び出し、</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3292,11 +3303,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3344,7 +3355,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:sysClr lastClr="000000" val="windowText"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3365,84 +3376,84 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>⑫パラメータの</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>ActionMapping</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>から</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>ActionForward</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>を取得し、’</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>success</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>’を設定</a:t>
           </a:r>
@@ -3480,7 +3491,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:sysClr lastClr="000000" val="windowText"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3501,40 +3512,40 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>⑬⑫で生成した</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>ActionForward</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>を返却</a:t>
           </a:r>
@@ -3991,26 +4002,26 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip" wrap="none">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:rPr altLang="en-US" lang="ja-JP" sz="900"/>
             <a:t>有り</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900"/>
@@ -4044,26 +4055,26 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip" wrap="none">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:rPr altLang="en-US" lang="ja-JP" sz="900"/>
             <a:t>無し</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900"/>
@@ -4075,15 +4086,39 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4118,7 +4153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4153,7 +4188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4241,7 +4276,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -4250,13 +4285,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4266,7 +4301,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -4275,7 +4310,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4284,7 +4319,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4294,12 +4329,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -4330,7 +4365,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -4349,7 +4384,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -4361,29 +4396,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" baseColWidth="3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="7" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="7" customWidth="1"/>
-    <col min="10" max="11" width="2.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="false"/>
+    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="false"/>
+    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="false"/>
+    <col min="17" max="16384" style="7" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4414,14 +4449,14 @@
       <c r="M1" s="40">
         <v>43143</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>27</v>
+      <c r="N1" s="25" t="n">
+        <v>43259.59859076389</v>
       </c>
       <c r="O1" s="26" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="71" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4437,7 +4472,9 @@
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="73"/>
+      <c r="I2" s="73" t="s">
+        <v>122</v>
+      </c>
       <c r="J2" s="26" t="s">
         <v>30</v>
       </c>
@@ -4458,7 +4495,7 @@
       </c>
       <c r="P2" s="72"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4476,7 +4513,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -4510,7 +4547,7 @@
       <c r="O4" s="76"/>
       <c r="P4" s="75"/>
     </row>
-    <row r="5" spans="1:16" ht="31.5" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="31.5" r="5" spans="1:16" thickTop="1">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -4544,7 +4581,7 @@
       <c r="O5" s="81"/>
       <c r="P5" s="82"/>
     </row>
-    <row r="6" spans="1:16" ht="32.25" customHeight="1">
+    <row customHeight="1" ht="32.25" r="6" spans="1:16">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -4578,7 +4615,7 @@
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
     </row>
-    <row r="7" spans="1:16" ht="40.5" customHeight="1">
+    <row customHeight="1" ht="40.5" r="7" spans="1:16">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -4612,7 +4649,7 @@
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
     </row>
-    <row r="8" spans="1:16" ht="40.5" customHeight="1">
+    <row customHeight="1" ht="40.5" r="8" spans="1:16">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -4646,7 +4683,7 @@
       <c r="O8" s="64"/>
       <c r="P8" s="65"/>
     </row>
-    <row r="9" spans="1:16" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="9" spans="1:16">
       <c r="A9" s="19">
         <v>5</v>
       </c>
@@ -4680,7 +4717,7 @@
       <c r="O9" s="64"/>
       <c r="P9" s="65"/>
     </row>
-    <row r="10" spans="1:16" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="10" spans="1:16">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -4714,7 +4751,7 @@
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
     </row>
-    <row r="11" spans="1:16" ht="33.75">
+    <row ht="33.75" r="11" spans="1:16">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -4748,7 +4785,7 @@
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
     </row>
-    <row r="12" spans="1:16" ht="45">
+    <row ht="45" r="12" spans="1:16">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -4821,44 +4858,2410 @@
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="180" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="180" fitToHeight="0" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
+  <drawing r:id="rId5"/>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="false" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="3" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="true"/>
+    <col min="17" max="16384" style="7" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="40">
+        <v>43143</v>
+      </c>
+      <c r="N1" s="25" t="n">
+        <v>43259.59859101852</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="42">
+        <v>1</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="72"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row customHeight="1" ht="31.5" r="5" spans="1:16" thickTop="1">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:16">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:16">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:16">
+      <c r="A8" s="19">
+        <v>4</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:16">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:16">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+    </row>
+    <row ht="33.75" r="11" spans="1:16">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row ht="45" r="12" spans="1:16">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="33">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+  </headerFooter>
+  <drawing r:id="rId5"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="false" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="3" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="true"/>
+    <col min="17" max="16384" style="7" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="40">
+        <v>43143</v>
+      </c>
+      <c r="N1" s="25" t="n">
+        <v>43259.59859119213</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="42">
+        <v>1</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="72"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row customHeight="1" ht="31.5" r="5" spans="1:16" thickTop="1">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:16">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:16">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:16">
+      <c r="A8" s="19">
+        <v>4</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:16">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:16">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+    </row>
+    <row ht="33.75" r="11" spans="1:16">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row ht="45" r="12" spans="1:16">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="33">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+  </headerFooter>
+  <drawing r:id="rId5"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="false" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="3" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="true"/>
+    <col min="17" max="16384" style="7" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="40">
+        <v>43143</v>
+      </c>
+      <c r="N1" s="25" t="n">
+        <v>43259.59859137732</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="42">
+        <v>1</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="72"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row customHeight="1" ht="31.5" r="5" spans="1:16" thickTop="1">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:16">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:16">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:16">
+      <c r="A8" s="19">
+        <v>4</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:16">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:16">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+    </row>
+    <row ht="33.75" r="11" spans="1:16">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row ht="45" r="12" spans="1:16">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="33">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+  </headerFooter>
+  <drawing r:id="rId5"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="false" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="3" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="true"/>
+    <col min="17" max="16384" style="7" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="40">
+        <v>43143</v>
+      </c>
+      <c r="N1" s="25" t="n">
+        <v>43259.59859155092</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="42">
+        <v>1</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="72"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row customHeight="1" ht="31.5" r="5" spans="1:16" thickTop="1">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:16">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:16">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:16">
+      <c r="A8" s="19">
+        <v>4</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:16">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:16">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+    </row>
+    <row ht="33.75" r="11" spans="1:16">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row ht="45" r="12" spans="1:16">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="33">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+  </headerFooter>
+  <drawing r:id="rId5"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="false" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="3" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="true"/>
+    <col min="17" max="16384" style="7" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="40">
+        <v>43143</v>
+      </c>
+      <c r="N1" s="25" t="n">
+        <v>43259.59859076389</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="42">
+        <v>1</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="72"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row customHeight="1" ht="31.5" r="5" spans="1:16" thickTop="1">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:16">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:16">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:16">
+      <c r="A8" s="19">
+        <v>4</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:16">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:16">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+    </row>
+    <row ht="33.75" r="11" spans="1:16">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row ht="45" r="12" spans="1:16">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="33">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+  </headerFooter>
+  <drawing r:id="rId5"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
       <selection activeCell="G21" sqref="G21:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="7" customWidth="1"/>
-    <col min="11" max="12" width="2.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="32" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.42578125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="7" width="6.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="7" width="15.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="7" width="13.5703125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="7" width="11.140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="7" width="8.5703125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="7" width="12.5703125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="7" width="15.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="7" width="4.5703125" collapsed="false"/>
+    <col min="11" max="12" customWidth="true" style="7" width="2.5703125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="7" width="4.5703125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="32" width="7.5703125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="32" width="4.5703125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="32" width="10.5703125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="7" width="7.140625" collapsed="false"/>
+    <col min="18" max="16384" style="7" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4967,7 +7370,7 @@
       <c r="P3" s="127"/>
       <c r="Q3" s="126"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="1" spans="1:17">
       <c r="A4" s="66" t="s">
         <v>22</v>
       </c>
@@ -4990,7 +7393,7 @@
       <c r="P4" s="127"/>
       <c r="Q4" s="126"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="41.25" r="5" s="1" spans="1:17">
       <c r="A5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5013,7 +7416,7 @@
       <c r="P5" s="127"/>
       <c r="Q5" s="126"/>
     </row>
-    <row r="6" spans="1:17" ht="6" customHeight="1">
+    <row customHeight="1" ht="6" r="6" spans="1:17">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5032,7 +7435,7 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="7" spans="1:17">
       <c r="A7" s="90" t="s">
         <v>3</v>
       </c>
@@ -5053,7 +7456,7 @@
       <c r="P7" s="91"/>
       <c r="Q7" s="92"/>
     </row>
-    <row r="8" spans="1:17" ht="14.25" thickBot="1">
+    <row ht="14.25" r="8" spans="1:17" thickBot="1">
       <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
@@ -5082,7 +7485,7 @@
       <c r="P8" s="117"/>
       <c r="Q8" s="118"/>
     </row>
-    <row r="9" spans="1:17" ht="14.25" thickTop="1">
+    <row ht="14.25" r="9" spans="1:17" thickTop="1">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -5207,7 +7610,7 @@
       <c r="P13" s="89"/>
       <c r="Q13" s="88"/>
     </row>
-    <row r="14" spans="1:17" ht="6" customHeight="1">
+    <row customHeight="1" ht="6" r="14" spans="1:17">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -5247,7 +7650,7 @@
       <c r="P15" s="91"/>
       <c r="Q15" s="92"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" thickBot="1">
+    <row ht="14.25" r="16" spans="1:17" thickBot="1">
       <c r="A16" s="21" t="s">
         <v>48</v>
       </c>
@@ -5272,7 +7675,7 @@
       <c r="P16" s="117"/>
       <c r="Q16" s="118"/>
     </row>
-    <row r="17" spans="1:17" ht="27" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="27" r="17" spans="1:17" thickTop="1">
       <c r="A17" s="22">
         <v>1</v>
       </c>
@@ -5354,7 +7757,7 @@
       <c r="P20" s="114"/>
       <c r="Q20" s="115"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21" spans="1:17">
       <c r="A21" s="23"/>
       <c r="B21" s="87"/>
       <c r="C21" s="89"/>
@@ -5373,7 +7776,7 @@
       <c r="P21" s="89"/>
       <c r="Q21" s="88"/>
     </row>
-    <row r="22" spans="1:17" ht="6" customHeight="1"/>
+    <row customHeight="1" ht="6" r="22" spans="1:17"/>
     <row r="23" spans="1:17">
       <c r="A23" s="90" t="s">
         <v>2</v>
@@ -5397,7 +7800,7 @@
       <c r="P23" s="91"/>
       <c r="Q23" s="92"/>
     </row>
-    <row r="24" spans="1:17" ht="57" customHeight="1">
+    <row customHeight="1" ht="57" r="24" spans="1:17">
       <c r="A24" s="87" t="s">
         <v>108</v>
       </c>
@@ -5420,7 +7823,7 @@
       <c r="P24" s="85"/>
       <c r="Q24" s="86"/>
     </row>
-    <row r="25" spans="1:17" ht="7.5" customHeight="1"/>
+    <row customHeight="1" ht="7.5" r="25" spans="1:17"/>
     <row r="26" spans="1:17">
       <c r="A26" s="90" t="s">
         <v>8</v>
@@ -5467,7 +7870,7 @@
       <c r="P27" s="102"/>
       <c r="Q27" s="103"/>
     </row>
-    <row r="28" spans="1:17" ht="14.25" thickBot="1">
+    <row ht="14.25" r="28" spans="1:17" thickBot="1">
       <c r="A28" s="94"/>
       <c r="B28" s="98"/>
       <c r="C28" s="99"/>
@@ -5492,7 +7895,7 @@
       <c r="P28" s="76"/>
       <c r="Q28" s="75"/>
     </row>
-    <row r="29" spans="1:17" ht="14.25" thickTop="1">
+    <row ht="14.25" r="29" spans="1:17" thickTop="1">
       <c r="A29" s="39" t="s">
         <v>89</v>
       </c>
@@ -5613,11 +8016,11 @@
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="180" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="180" fitToHeight="0" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -5625,31 +8028,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
       <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="3.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="3.140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="47" customWidth="1"/>
-    <col min="7" max="8" width="3.140625" style="57" customWidth="1"/>
-    <col min="9" max="13" width="3.140625" style="47" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="47" customWidth="1"/>
-    <col min="15" max="32" width="3.140625" style="47" customWidth="1"/>
-    <col min="33" max="33" width="3" style="47" customWidth="1"/>
-    <col min="34" max="44" width="3.140625" style="47" customWidth="1"/>
-    <col min="45" max="45" width="3.5703125" style="47" customWidth="1"/>
-    <col min="46" max="46" width="3.5703125" style="47"/>
-    <col min="47" max="47" width="11.42578125" style="47" customWidth="1"/>
-    <col min="48" max="16384" width="3.5703125" style="47"/>
+    <col min="1" max="4" customWidth="true" style="47" width="3.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="57" width="3.140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="47" width="3.140625" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" style="57" width="3.140625" collapsed="false"/>
+    <col min="9" max="13" customWidth="true" style="47" width="3.140625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="47" width="3.42578125" collapsed="false"/>
+    <col min="15" max="32" customWidth="true" style="47" width="3.140625" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" style="47" width="3.0" collapsed="false"/>
+    <col min="34" max="44" customWidth="true" style="47" width="3.140625" collapsed="false"/>
+    <col min="45" max="45" customWidth="true" style="47" width="3.5703125" collapsed="false"/>
+    <col min="46" max="46" style="47" width="3.5703125" collapsed="false"/>
+    <col min="47" max="47" customWidth="true" style="47" width="11.42578125" collapsed="false"/>
+    <col min="48" max="16384" style="47" width="3.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="1" spans="1:50">
       <c r="A1" s="144" t="s">
         <v>23</v>
       </c>
@@ -5716,7 +8119,7 @@
       </c>
       <c r="AS1" s="142"/>
     </row>
-    <row r="2" spans="1:50" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="2" spans="1:50">
       <c r="A2" s="144" t="s">
         <v>29</v>
       </c>
@@ -5787,7 +8190,7 @@
       <c r="AR2" s="142"/>
       <c r="AS2" s="142"/>
     </row>
-    <row r="3" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="3" spans="1:50">
       <c r="A3" s="48"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -5840,7 +8243,7 @@
       <c r="AW3" s="16"/>
       <c r="AX3" s="16"/>
     </row>
-    <row r="4" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:50">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -5893,7 +8296,7 @@
       <c r="AW4" s="16"/>
       <c r="AX4" s="16"/>
     </row>
-    <row r="5" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="5" spans="1:50">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -5946,7 +8349,7 @@
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
     </row>
-    <row r="6" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="6" spans="1:50">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -5993,7 +8396,7 @@
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
     </row>
-    <row r="7" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="7" spans="1:50">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -6040,7 +8443,7 @@
       <c r="AW7" s="16"/>
       <c r="AX7" s="16"/>
     </row>
-    <row r="8" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="8" spans="1:50">
       <c r="A8" s="48"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -6082,7 +8485,7 @@
       <c r="AM8" s="49"/>
       <c r="AS8" s="52"/>
     </row>
-    <row r="9" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="9" spans="1:50">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -6124,7 +8527,7 @@
       <c r="AM9" s="49"/>
       <c r="AS9" s="52"/>
     </row>
-    <row r="10" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="10" spans="1:50">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -6166,7 +8569,7 @@
       <c r="AM10" s="49"/>
       <c r="AS10" s="52"/>
     </row>
-    <row r="11" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="11" spans="1:50">
       <c r="A11" s="48"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -6208,7 +8611,7 @@
       <c r="AM11" s="49"/>
       <c r="AS11" s="52"/>
     </row>
-    <row r="12" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="12" spans="1:50">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -6250,7 +8653,7 @@
       <c r="AM12" s="49"/>
       <c r="AS12" s="52"/>
     </row>
-    <row r="13" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="13" spans="1:50">
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -6292,7 +8695,7 @@
       <c r="AM13" s="49"/>
       <c r="AS13" s="52"/>
     </row>
-    <row r="14" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="14" spans="1:50">
       <c r="A14" s="48"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -6334,7 +8737,7 @@
       <c r="AM14" s="49"/>
       <c r="AS14" s="52"/>
     </row>
-    <row r="15" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="15" spans="1:50">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -6375,7 +8778,7 @@
       <c r="AM15" s="49"/>
       <c r="AS15" s="52"/>
     </row>
-    <row r="16" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="16" spans="1:50">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -6417,7 +8820,7 @@
       <c r="AM16" s="49"/>
       <c r="AS16" s="52"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="17" spans="1:45">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -6459,7 +8862,7 @@
       <c r="AM17" s="49"/>
       <c r="AS17" s="52"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="18" spans="1:45">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -6501,7 +8904,7 @@
       <c r="AM18" s="49"/>
       <c r="AS18" s="52"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="19" spans="1:45">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -6543,7 +8946,7 @@
       <c r="AM19" s="49"/>
       <c r="AS19" s="52"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="20" spans="1:45">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -6585,7 +8988,7 @@
       <c r="AM20" s="49"/>
       <c r="AS20" s="52"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="21" spans="1:45">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -6627,7 +9030,7 @@
       <c r="AM21" s="49"/>
       <c r="AS21" s="52"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="22" spans="1:45">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -6669,7 +9072,7 @@
       <c r="AM22" s="49"/>
       <c r="AS22" s="52"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="23" spans="1:45">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -6711,7 +9114,7 @@
       <c r="AM23" s="49"/>
       <c r="AS23" s="52"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="24" spans="1:45">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -6753,7 +9156,7 @@
       <c r="AM24" s="49"/>
       <c r="AS24" s="52"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="25" spans="1:45">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -6795,7 +9198,7 @@
       <c r="AM25" s="49"/>
       <c r="AS25" s="52"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="26" spans="1:45">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -6837,7 +9240,7 @@
       <c r="AM26" s="49"/>
       <c r="AS26" s="52"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="27" spans="1:45">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -6879,7 +9282,7 @@
       <c r="AM27" s="49"/>
       <c r="AS27" s="52"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="28" spans="1:45">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
@@ -6921,7 +9324,7 @@
       <c r="AM28" s="49"/>
       <c r="AS28" s="52"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="29" spans="1:45">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -6963,7 +9366,7 @@
       <c r="AM29" s="49"/>
       <c r="AS29" s="52"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="30" spans="1:45">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49"/>
@@ -7005,7 +9408,7 @@
       <c r="AM30" s="49"/>
       <c r="AS30" s="52"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="31" spans="1:45">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -7047,7 +9450,7 @@
       <c r="AM31" s="49"/>
       <c r="AS31" s="52"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="32" spans="1:45">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -7089,7 +9492,7 @@
       <c r="AM32" s="49"/>
       <c r="AS32" s="52"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="33" spans="1:45">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -7131,7 +9534,7 @@
       <c r="AM33" s="49"/>
       <c r="AS33" s="52"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="34" spans="1:45">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
@@ -7173,7 +9576,7 @@
       <c r="AM34" s="49"/>
       <c r="AS34" s="52"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="35" spans="1:45">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -7215,7 +9618,7 @@
       <c r="AM35" s="49"/>
       <c r="AS35" s="52"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="36" spans="1:45">
       <c r="A36" s="53"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -7287,14 +9690,14 @@
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="75" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="75" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="36" max="44" man="1"/>
+    <brk id="36" man="1" max="44"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -7302,29 +9705,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
       <selection activeCell="A5" sqref="A5:AS35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="3.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="3.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="16" customWidth="1"/>
-    <col min="7" max="8" width="3.140625" style="17" customWidth="1"/>
-    <col min="9" max="30" width="3.140625" style="16" customWidth="1"/>
-    <col min="31" max="31" width="2.42578125" style="16" customWidth="1"/>
-    <col min="32" max="42" width="3.140625" style="16" customWidth="1"/>
-    <col min="43" max="43" width="2.140625" style="16" customWidth="1"/>
-    <col min="44" max="44" width="3.140625" style="16" customWidth="1"/>
-    <col min="45" max="45" width="4" style="16" customWidth="1"/>
-    <col min="46" max="16384" width="3.5703125" style="16"/>
+    <col min="1" max="4" customWidth="true" style="16" width="3.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="17" width="3.140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="16" width="3.140625" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" style="17" width="3.140625" collapsed="false"/>
+    <col min="9" max="30" customWidth="true" style="16" width="3.140625" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" style="16" width="2.42578125" collapsed="false"/>
+    <col min="32" max="42" customWidth="true" style="16" width="3.140625" collapsed="false"/>
+    <col min="43" max="43" customWidth="true" style="16" width="2.140625" collapsed="false"/>
+    <col min="44" max="44" customWidth="true" style="16" width="3.140625" collapsed="false"/>
+    <col min="45" max="45" customWidth="true" style="16" width="4.0" collapsed="false"/>
+    <col min="46" max="16384" style="16" width="3.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="1" spans="1:45">
       <c r="A1" s="179" t="s">
         <v>23</v>
       </c>
@@ -7391,7 +9794,7 @@
       </c>
       <c r="AS1" s="178"/>
     </row>
-    <row r="2" spans="1:45" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="2" spans="1:45">
       <c r="A2" s="179" t="s">
         <v>29</v>
       </c>
@@ -7462,8 +9865,8 @@
       <c r="AR2" s="178"/>
       <c r="AS2" s="178"/>
     </row>
-    <row r="3" spans="1:45" ht="3.75" customHeight="1"/>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="3.75" r="3" spans="1:45"/>
+    <row customHeight="1" ht="15.75" r="4" spans="1:45">
       <c r="A4" s="168" t="s">
         <v>1</v>
       </c>
@@ -7512,7 +9915,7 @@
       <c r="AR4" s="168"/>
       <c r="AS4" s="168"/>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="5" spans="1:45">
       <c r="A5" s="169" t="s">
         <v>113</v>
       </c>
@@ -7561,7 +9964,7 @@
       <c r="AR5" s="170"/>
       <c r="AS5" s="171"/>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="6" spans="1:45">
       <c r="A6" s="172"/>
       <c r="B6" s="173"/>
       <c r="C6" s="173"/>
@@ -7608,7 +10011,7 @@
       <c r="AR6" s="173"/>
       <c r="AS6" s="174"/>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="7" spans="1:45">
       <c r="A7" s="172"/>
       <c r="B7" s="173"/>
       <c r="C7" s="173"/>
@@ -7655,7 +10058,7 @@
       <c r="AR7" s="173"/>
       <c r="AS7" s="174"/>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="8" spans="1:45">
       <c r="A8" s="172"/>
       <c r="B8" s="173"/>
       <c r="C8" s="173"/>
@@ -7702,7 +10105,7 @@
       <c r="AR8" s="173"/>
       <c r="AS8" s="174"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="9" spans="1:45">
       <c r="A9" s="172"/>
       <c r="B9" s="173"/>
       <c r="C9" s="173"/>
@@ -7749,7 +10152,7 @@
       <c r="AR9" s="173"/>
       <c r="AS9" s="174"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="10" spans="1:45">
       <c r="A10" s="172"/>
       <c r="B10" s="173"/>
       <c r="C10" s="173"/>
@@ -7796,7 +10199,7 @@
       <c r="AR10" s="173"/>
       <c r="AS10" s="174"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="11" spans="1:45">
       <c r="A11" s="172"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
@@ -7843,7 +10246,7 @@
       <c r="AR11" s="173"/>
       <c r="AS11" s="174"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="12" spans="1:45">
       <c r="A12" s="172"/>
       <c r="B12" s="173"/>
       <c r="C12" s="173"/>
@@ -7890,7 +10293,7 @@
       <c r="AR12" s="173"/>
       <c r="AS12" s="174"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="13" spans="1:45">
       <c r="A13" s="172"/>
       <c r="B13" s="173"/>
       <c r="C13" s="173"/>
@@ -7937,7 +10340,7 @@
       <c r="AR13" s="173"/>
       <c r="AS13" s="174"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="14" spans="1:45">
       <c r="A14" s="172"/>
       <c r="B14" s="173"/>
       <c r="C14" s="173"/>
@@ -7984,7 +10387,7 @@
       <c r="AR14" s="173"/>
       <c r="AS14" s="174"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="15" spans="1:45">
       <c r="A15" s="172"/>
       <c r="B15" s="173"/>
       <c r="C15" s="173"/>
@@ -8031,7 +10434,7 @@
       <c r="AR15" s="173"/>
       <c r="AS15" s="174"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="16" spans="1:45">
       <c r="A16" s="172"/>
       <c r="B16" s="173"/>
       <c r="C16" s="173"/>
@@ -8078,7 +10481,7 @@
       <c r="AR16" s="173"/>
       <c r="AS16" s="174"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="17" spans="1:45">
       <c r="A17" s="172"/>
       <c r="B17" s="173"/>
       <c r="C17" s="173"/>
@@ -8125,7 +10528,7 @@
       <c r="AR17" s="173"/>
       <c r="AS17" s="174"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="18" spans="1:45">
       <c r="A18" s="172"/>
       <c r="B18" s="173"/>
       <c r="C18" s="173"/>
@@ -8172,7 +10575,7 @@
       <c r="AR18" s="173"/>
       <c r="AS18" s="174"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="19" spans="1:45">
       <c r="A19" s="172"/>
       <c r="B19" s="173"/>
       <c r="C19" s="173"/>
@@ -8219,7 +10622,7 @@
       <c r="AR19" s="173"/>
       <c r="AS19" s="174"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="20" spans="1:45">
       <c r="A20" s="172"/>
       <c r="B20" s="173"/>
       <c r="C20" s="173"/>
@@ -8266,7 +10669,7 @@
       <c r="AR20" s="173"/>
       <c r="AS20" s="174"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="21" spans="1:45">
       <c r="A21" s="172"/>
       <c r="B21" s="173"/>
       <c r="C21" s="173"/>
@@ -8313,7 +10716,7 @@
       <c r="AR21" s="173"/>
       <c r="AS21" s="174"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="22" spans="1:45">
       <c r="A22" s="172"/>
       <c r="B22" s="173"/>
       <c r="C22" s="173"/>
@@ -8360,7 +10763,7 @@
       <c r="AR22" s="173"/>
       <c r="AS22" s="174"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="23" spans="1:45">
       <c r="A23" s="172"/>
       <c r="B23" s="173"/>
       <c r="C23" s="173"/>
@@ -8407,7 +10810,7 @@
       <c r="AR23" s="173"/>
       <c r="AS23" s="174"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="24" spans="1:45">
       <c r="A24" s="172"/>
       <c r="B24" s="173"/>
       <c r="C24" s="173"/>
@@ -8454,7 +10857,7 @@
       <c r="AR24" s="173"/>
       <c r="AS24" s="174"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="25" spans="1:45">
       <c r="A25" s="172"/>
       <c r="B25" s="173"/>
       <c r="C25" s="173"/>
@@ -8501,7 +10904,7 @@
       <c r="AR25" s="173"/>
       <c r="AS25" s="174"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="26" spans="1:45">
       <c r="A26" s="172"/>
       <c r="B26" s="173"/>
       <c r="C26" s="173"/>
@@ -8548,7 +10951,7 @@
       <c r="AR26" s="173"/>
       <c r="AS26" s="174"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="27" spans="1:45">
       <c r="A27" s="172"/>
       <c r="B27" s="173"/>
       <c r="C27" s="173"/>
@@ -8595,7 +10998,7 @@
       <c r="AR27" s="173"/>
       <c r="AS27" s="174"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="28" spans="1:45">
       <c r="A28" s="172"/>
       <c r="B28" s="173"/>
       <c r="C28" s="173"/>
@@ -8642,7 +11045,7 @@
       <c r="AR28" s="173"/>
       <c r="AS28" s="174"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="29" spans="1:45">
       <c r="A29" s="172"/>
       <c r="B29" s="173"/>
       <c r="C29" s="173"/>
@@ -8689,7 +11092,7 @@
       <c r="AR29" s="173"/>
       <c r="AS29" s="174"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="30" spans="1:45">
       <c r="A30" s="172"/>
       <c r="B30" s="173"/>
       <c r="C30" s="173"/>
@@ -8736,7 +11139,7 @@
       <c r="AR30" s="173"/>
       <c r="AS30" s="174"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="31" spans="1:45">
       <c r="A31" s="172"/>
       <c r="B31" s="173"/>
       <c r="C31" s="173"/>
@@ -8783,7 +11186,7 @@
       <c r="AR31" s="173"/>
       <c r="AS31" s="174"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="32" spans="1:45">
       <c r="A32" s="172"/>
       <c r="B32" s="173"/>
       <c r="C32" s="173"/>
@@ -8830,7 +11233,7 @@
       <c r="AR32" s="173"/>
       <c r="AS32" s="174"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="33" spans="1:45">
       <c r="A33" s="172"/>
       <c r="B33" s="173"/>
       <c r="C33" s="173"/>
@@ -8877,7 +11280,7 @@
       <c r="AR33" s="173"/>
       <c r="AS33" s="174"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="34" spans="1:45">
       <c r="A34" s="172"/>
       <c r="B34" s="173"/>
       <c r="C34" s="173"/>
@@ -8924,7 +11327,7 @@
       <c r="AR34" s="173"/>
       <c r="AS34" s="174"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="35" spans="1:45">
       <c r="A35" s="175"/>
       <c r="B35" s="176"/>
       <c r="C35" s="176"/>
@@ -8971,7 +11374,7 @@
       <c r="AR35" s="176"/>
       <c r="AS35" s="177"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="36" spans="1:45">
       <c r="A36" s="168" t="s">
         <v>17</v>
       </c>
@@ -9020,7 +11423,7 @@
       <c r="AR36" s="168"/>
       <c r="AS36" s="168"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="37" spans="1:45">
       <c r="A37" s="163"/>
       <c r="B37" s="163"/>
       <c r="C37" s="163"/>
@@ -9067,7 +11470,7 @@
       <c r="AR37" s="163"/>
       <c r="AS37" s="163"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="38" spans="1:45">
       <c r="A38" s="163"/>
       <c r="B38" s="163"/>
       <c r="C38" s="163"/>
@@ -9114,7 +11517,7 @@
       <c r="AR38" s="163"/>
       <c r="AS38" s="163"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="39" spans="1:45">
       <c r="A39" s="163"/>
       <c r="B39" s="163"/>
       <c r="C39" s="163"/>
@@ -9161,7 +11564,7 @@
       <c r="AR39" s="163"/>
       <c r="AS39" s="163"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="40" spans="1:45">
       <c r="A40" s="163"/>
       <c r="B40" s="163"/>
       <c r="C40" s="163"/>
@@ -9208,7 +11611,7 @@
       <c r="AR40" s="163"/>
       <c r="AS40" s="163"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="41" spans="1:45">
       <c r="A41" s="163"/>
       <c r="B41" s="163"/>
       <c r="C41" s="163"/>
@@ -9255,7 +11658,7 @@
       <c r="AR41" s="163"/>
       <c r="AS41" s="163"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="42" spans="1:45">
       <c r="A42" s="163"/>
       <c r="B42" s="163"/>
       <c r="C42" s="163"/>
@@ -9302,7 +11705,7 @@
       <c r="AR42" s="163"/>
       <c r="AS42" s="163"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="43" spans="1:45">
       <c r="A43" s="163"/>
       <c r="B43" s="163"/>
       <c r="C43" s="163"/>
@@ -9350,7 +11753,7 @@
       <c r="AS43" s="163"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection autoFilter="0" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" pivotTables="0" sort="0"/>
   <dataConsolidate/>
   <mergeCells count="23">
     <mergeCell ref="AJ1:AL1"/>
@@ -9379,11 +11782,11 @@
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="75" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="75" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
